--- a/Testdata/Non_Oncology/DataFiles/LiveSLRPage/NonOnco_Clinical_GeographicRegion_updatedprisma_ClientUser.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/LiveSLRPage/NonOnco_Clinical_GeographicRegion_updatedprisma_ClientUser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\LiveSLRPage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9A1DE0-9A0B-46C7-8874-7E282CBEC251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DA345E-93D1-40C6-AED6-76CF66B0422B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,27 +76,9 @@
     <t>sectionname</t>
   </si>
   <si>
-    <t>lot_section</t>
-  </si>
-  <si>
     <t>intervention_section</t>
   </si>
   <si>
-    <t>sub_pop_section</t>
-  </si>
-  <si>
-    <t>sub_pop_section1</t>
-  </si>
-  <si>
-    <t>sub_pop_section1_checkbox</t>
-  </si>
-  <si>
-    <t>lot_section2</t>
-  </si>
-  <si>
-    <t>lot_section2_checkbox</t>
-  </si>
-  <si>
     <t>intervention_section4</t>
   </si>
   <si>
@@ -109,12 +91,6 @@
     <t>LIVEHTA Automation - Test_NonOncology_Automation_3_radio_button</t>
   </si>
   <si>
-    <t>sub_pop_section2</t>
-  </si>
-  <si>
-    <t>sub_pop_section2_checkbox</t>
-  </si>
-  <si>
     <t>geo_region_section1</t>
   </si>
   <si>
@@ -170,6 +146,30 @@
   </si>
   <si>
     <t>StandardExcelReport-Test_NonOncology_Automation_3-Clinical-2023_</t>
+  </si>
+  <si>
+    <t>pop_filter1_section</t>
+  </si>
+  <si>
+    <t>pop_filter2_section</t>
+  </si>
+  <si>
+    <t>pop_filter1_section1</t>
+  </si>
+  <si>
+    <t>pop_filter1_section1_checkbox</t>
+  </si>
+  <si>
+    <t>pop_filter1_section2</t>
+  </si>
+  <si>
+    <t>pop_filter1_section2_checkbox</t>
+  </si>
+  <si>
+    <t>pop_filter2_section2</t>
+  </si>
+  <si>
+    <t>pop_filter2_section2_checkbox</t>
   </si>
 </sst>
 </file>
@@ -498,9 +498,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:XFD18"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,16 +550,16 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -567,10 +567,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -579,31 +579,31 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J2">
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -611,25 +611,25 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J3">
         <v>4</v>
       </c>
       <c r="K3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -637,19 +637,19 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="J4">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -657,19 +657,19 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -677,19 +677,19 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -700,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="N7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
